--- a/biology/Zoologie/Gobius_bucchichi/Gobius_bucchichi.xlsx
+++ b/biology/Zoologie/Gobius_bucchichi/Gobius_bucchichi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie moucheté (Gobius bucchichi) est une espèce de poissons de la grande famille des Gobiidae et du genre Gobius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le surnomme gobie moucheté en raison de son corps brun pâle et gris recouvert de petites taches noires, ce qui lui assure un bon camouflage. Il a une longue tache noire traversant les yeux.
 Les mâles peuvent atteindre 10 cm de longueur totale.
@@ -548,7 +562,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire de l'océan Atlantique, près du détroit de Gibraltar et de la Méditerranée.
 </t>
@@ -579,7 +595,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de petits invertébrés benthiques (crustacés, polychètes, mollusques) et d'algues.
 </t>
@@ -610,7 +628,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité sexuelle se situe au cours de la première année de vie et de 3,4-3,8 cm de long. Les mâles sont territoriaux pendant la saison de reproduction pour attirer les femelles dans leur territoire.
 </t>
@@ -641,7 +661,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble avoir un mode de vie benthique. C'est le seul poisson de la Méditerranée capable de vivre dans les tentacules urticantes de l'anémone Anemonia sulcata. Il préfère les fonds sablonneux aux côtes rocheuses et vit jusqu'à 30 m de profondeur avec une température de l'eau comprise entre 15 et 24 °C.
 </t>
